--- a/Controle+de+Rotas+RSabino+Transportes+(inicio+aula+1).xlsx
+++ b/Controle+de+Rotas+RSabino+Transportes+(inicio+aula+1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://officeresolve-my.sharepoint.com/personal/r_sabino_officeresolve_com_br/Documents/Alura/Excel (curso 4)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Desktop\remoto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{8705E4D8-F1DB-480E-81D0-B075D49B8C20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{62BD224C-5693-40C5-B050-D9517EAFB6FD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552263FF-1288-4D3B-8ABA-52CF2BEAFDF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{B673A230-CF2B-4926-840F-06DAC6DEF54A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B673A230-CF2B-4926-840F-06DAC6DEF54A}"/>
   </bookViews>
   <sheets>
     <sheet name="Controle de Entregas" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="41">
   <si>
     <t>Cliente</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Artigos de Papelaria</t>
+  </si>
+  <si>
+    <t>acb</t>
   </si>
 </sst>
 </file>
@@ -160,7 +163,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -205,17 +208,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -540,7 +543,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,7 +725,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="B5" s="5">
         <v>43744</v>
@@ -1785,18 +1788,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1964,6 +1967,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4CE2725-B27F-4F45-8730-2F37D1E15C2D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B1E2AAA-2183-4DCF-A571-7D87F752D774}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="44473e96-bad3-4ccd-b3db-2438e2abade5"/>
@@ -1975,14 +1986,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4CE2725-B27F-4F45-8730-2F37D1E15C2D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
